--- a/data_group/plan_max_and_min_group_evapo.xlsx
+++ b/data_group/plan_max_and_min_group_evapo.xlsx
@@ -2107,7 +2107,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2293,7 +2293,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2324,7 +2324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2355,7 +2355,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2510,7 +2510,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2541,7 +2541,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2634,7 +2634,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2696,7 +2696,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2727,7 +2727,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2789,7 +2789,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2851,7 +2851,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SF_beginning</t>
+          <t>SF_early</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">

--- a/data_group/plan_max_and_min_group_evapo.xlsx
+++ b/data_group/plan_max_and_min_group_evapo.xlsx
@@ -411,13 +411,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>1379.161500223787</v>
+        <v>1386.215101528118</v>
       </c>
       <c r="F2">
-        <v>1313.096801108614</v>
+        <v>1316.282304515289</v>
       </c>
       <c r="G2">
-        <v>1279.260569226634</v>
+        <v>1280.069369206834</v>
       </c>
     </row>
     <row r="3">
@@ -437,13 +437,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>1438.739816120646</v>
+        <v>1448.549848939106</v>
       </c>
       <c r="F3">
-        <v>1363.046883592377</v>
+        <v>1364.987134076751</v>
       </c>
       <c r="G3">
-        <v>1329.251778455748</v>
+        <v>1325.584650501287</v>
       </c>
     </row>
     <row r="4">
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>1480.655881116113</v>
+        <v>1487.519237195422</v>
       </c>
       <c r="F4">
-        <v>1401.536970910588</v>
+        <v>1401.343073634014</v>
       </c>
       <c r="G4">
-        <v>1354.453029234621</v>
+        <v>1351.71579663551</v>
       </c>
     </row>
     <row r="5">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>1509.079116650865</v>
+        <v>1513.152722107284</v>
       </c>
       <c r="F5">
-        <v>1427.162118854898</v>
+        <v>1426.467072863312</v>
       </c>
       <c r="G5">
-        <v>1371.707112962042</v>
+        <v>1369.050254238862</v>
       </c>
     </row>
     <row r="6">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>1522.787210031993</v>
+        <v>1524.738761761832</v>
       </c>
       <c r="F6">
-        <v>1439.787661736007</v>
+        <v>1439.076925604331</v>
       </c>
       <c r="G6">
-        <v>1380.850807713796</v>
+        <v>1379.836365793035</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>1497.66713112455</v>
+        <v>1497.074810506335</v>
       </c>
       <c r="F12">
-        <v>1454.678056093092</v>
+        <v>1457.386809723045</v>
       </c>
       <c r="G12">
-        <v>1380.881372797883</v>
+        <v>1377.746366589507</v>
       </c>
     </row>
     <row r="13">
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>1531.633938603756</v>
+        <v>1523.206116298629</v>
       </c>
       <c r="F13">
-        <v>1494.723695590169</v>
+        <v>1491.576716986441</v>
       </c>
       <c r="G13">
-        <v>1418.883273891662</v>
+        <v>1411.985194952392</v>
       </c>
     </row>
     <row r="14">
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="E14">
-        <v>1546.074172324704</v>
+        <v>1542.011369441017</v>
       </c>
       <c r="F14">
-        <v>1512.504072563357</v>
+        <v>1510.760956786625</v>
       </c>
       <c r="G14">
-        <v>1441.791277021415</v>
+        <v>1435.712543926745</v>
       </c>
     </row>
     <row r="15">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>1553.372979482014</v>
+        <v>1555.564204479846</v>
       </c>
       <c r="F15">
-        <v>1521.950908346776</v>
+        <v>1521.295965698674</v>
       </c>
       <c r="G15">
-        <v>1453.923284523792</v>
+        <v>1454.19940267349</v>
       </c>
     </row>
     <row r="16">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E16">
-        <v>1552.800122471496</v>
+        <v>1556.797614462486</v>
       </c>
       <c r="F16">
-        <v>1523.122399916057</v>
+        <v>1529.300144655913</v>
       </c>
       <c r="G16">
-        <v>1461.244423710411</v>
+        <v>1462.101969558573</v>
       </c>
     </row>
     <row r="17">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>1360.401348129166</v>
+        <v>1381.963394054874</v>
       </c>
       <c r="F22">
-        <v>1305.398471865905</v>
+        <v>1345.241925502767</v>
       </c>
       <c r="G22">
-        <v>1051.978607708877</v>
+        <v>1176.277540223651</v>
       </c>
     </row>
     <row r="23">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>1395.538959938114</v>
+        <v>1405.265977771528</v>
       </c>
       <c r="F23">
-        <v>1344.540019392798</v>
+        <v>1366.365467893419</v>
       </c>
       <c r="G23">
-        <v>1133.790539996017</v>
+        <v>1211.351057895919</v>
       </c>
     </row>
     <row r="24">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>1415.303024752528</v>
+        <v>1420.870823025703</v>
       </c>
       <c r="F24">
-        <v>1370.997886525634</v>
+        <v>1386.474259377643</v>
       </c>
       <c r="G24">
-        <v>1190.421124229473</v>
+        <v>1243.038642720832</v>
       </c>
     </row>
     <row r="25">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>1428.951580260432</v>
+        <v>1433.179692057664</v>
       </c>
       <c r="F25">
-        <v>1386.837257211807</v>
+        <v>1401.423692260779</v>
       </c>
       <c r="G25">
-        <v>1231.887916263564</v>
+        <v>1264.812565754655</v>
       </c>
     </row>
     <row r="26">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>1431.382973326262</v>
+        <v>1435.921754123159</v>
       </c>
       <c r="F26">
-        <v>1397.598615247716</v>
+        <v>1402.818287238324</v>
       </c>
       <c r="G26">
-        <v>1240.752264900968</v>
+        <v>1258.211328423549</v>
       </c>
     </row>
     <row r="27">
